--- a/results/behavioral/compare/compare.xlsx
+++ b/results/behavioral/compare/compare.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="466">
   <si>
     <t>Unique Code</t>
   </si>
@@ -760,7 +760,7 @@
     <t xml:space="preserve">109-52 174-47 232-57 220-78 220-91 219-57 224-120 224-133 223-118 223-139 225-169 229-179 232-192 235-200 242-188 244-178 245-180 245-187 264-214 261-202 254-240 258-277 247-249 228-288 227-241 213-278 179-95 209-67 264-277 181-74 </t>
   </si>
   <si>
-    <t xml:space="preserve">164-137 136-105 136-83 148-35 102--1 107-34 95-63 121-89 32-119 162-96 152-46 192-90 182-66 213-93 100-195 93-164 92-150 356-130 128-151 158-173 118-209 133-232 130-269 154-298 104-283 152-303 172-277 176-310 99-344 180-126 184-82 194-38 196-50 200-69 213-63 192-57 197-74 189-38 183-60 </t>
+    <t xml:space="preserve">164-137 136-105 136-83 148-35 102-1 107-34 95-63 121-89 32-119 162-96 152-46 192-90 182-66 213-93 100-195 93-164 92-150 356-130 128-151 158-173 118-209 133-232 130-269 154-298 104-283 152-303 172-277 176-310 99-344 180-126 184-82 194-38 196-50 200-69 213-63 192-57 197-74 189-38 183-60 </t>
   </si>
   <si>
     <t xml:space="preserve">70-5 106-28 125-48 136-68 139-90 201-86 188-70 150-106 141-130 434-131 84-134 120-153 196-177 193-190 184-198 172-212 169-233 180-275 93-86 139-76 204-89 181-247 189-269 202-238 146-297 117-347 204-260 </t>
@@ -1157,9 +1157,6 @@
   </si>
   <si>
     <t xml:space="preserve">76-75 86-35 142-66 166-104 173-184 208-99 222-195 207-108 238-225 179-182 190-238 148-274 71-293 128-225 242-197 224-123 240-80 206-67 200-132 230-104 223-121 228-103 226-61 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">122-71 394-53 127-78 203-97 167-151 153-177 152-193 186-222 180-265 181-217 186-197 190-238 176-272 163-325 154-352 142-383 129-401 136-359 146-319 143-252 146-267 188-45 221-76 395-51 250-162 188-195 219-141 249-171 419-64 218-53 272-167 257-209 126-224 242-38 240-56 198-217 178-258 241-159 201-220 174-293 175-324 172-264 164-336 159-362 161-323 159-357 164-334 161-353 102-403 165-64 163-230 163-171 168-280 161-259 173-221 185-175 185-196 165-173 175-205 166-225 147-258 172-209 174-199 148-376 148-327 146-306 148-330 152-357 153-325 147-300 148-261 158-200 145-273 144-354 139-398 166-184 150-88 165-57 206-100 171-189 178-223 155-256 163-223 201-239 179-224 226-200 157-187 151-172 200-92 229-68 217-161 229-79 181-151 180-197 160-261 145-318 147-343 143-371 136-359 152-174 125-140 157-190 208-236 289-42 241-62 107-311 128-355 193-154 174-211 182-186 195-158 189-197 163-163 238-97 277-72 374-41 393-67 390-58 </t>
   </si>
   <si>
     <t xml:space="preserve">47-42 215-50 156-94 130-162 161-127 125-157 147-190 150-204 169-183 136-141 133-194 126-223 138-175 136-148 117-188 145-173 170-200 156-176 165-206 210-159 203-191 205-179 204-187 </t>
@@ -1772,7 +1769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H421"/>
+  <dimension ref="A1:H419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1918,7 +1915,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1941,7 +1938,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1964,7 +1961,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1987,7 +1984,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -2010,7 +2007,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -2125,7 +2122,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -2148,7 +2145,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -2171,7 +2168,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -2194,7 +2191,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -2217,7 +2214,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -2240,7 +2237,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -2378,7 +2375,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -2401,7 +2398,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -2424,7 +2421,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -2447,7 +2444,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -2470,7 +2467,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -2585,7 +2582,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -2608,7 +2605,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -2631,7 +2628,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -2654,7 +2651,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -2677,7 +2674,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -2700,7 +2697,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -2838,7 +2835,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
@@ -2861,7 +2858,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -2884,7 +2881,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
@@ -2907,7 +2904,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
@@ -2930,7 +2927,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
@@ -3045,7 +3042,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -3068,7 +3065,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
@@ -3091,7 +3088,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
@@ -3114,7 +3111,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
@@ -3137,7 +3134,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
@@ -3160,7 +3157,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
@@ -3275,7 +3272,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -3298,7 +3295,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -3321,7 +3318,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -3344,7 +3341,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -3367,7 +3364,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
@@ -3390,7 +3387,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -3505,7 +3502,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -3528,7 +3525,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -3551,7 +3548,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
@@ -3574,7 +3571,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -3597,7 +3594,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -3620,7 +3617,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
@@ -3758,7 +3755,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
@@ -3781,7 +3778,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
@@ -3804,7 +3801,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
@@ -3827,7 +3824,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
@@ -3850,7 +3847,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
@@ -3965,7 +3962,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
@@ -3988,7 +3985,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
@@ -4011,7 +4008,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
@@ -4034,7 +4031,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
@@ -4057,7 +4054,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
@@ -4080,7 +4077,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
@@ -4195,7 +4192,7 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B106" t="s">
         <v>12</v>
@@ -4218,7 +4215,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B107" t="s">
         <v>12</v>
@@ -4241,7 +4238,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B108" t="s">
         <v>12</v>
@@ -4264,7 +4261,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B109" t="s">
         <v>12</v>
@@ -4287,7 +4284,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B110" t="s">
         <v>12</v>
@@ -4310,7 +4307,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B111" t="s">
         <v>12</v>
@@ -4425,7 +4422,7 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B116" t="s">
         <v>12</v>
@@ -4448,7 +4445,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B117" t="s">
         <v>12</v>
@@ -4471,7 +4468,7 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B118" t="s">
         <v>12</v>
@@ -4494,7 +4491,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B119" t="s">
         <v>12</v>
@@ -4517,7 +4514,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B120" t="s">
         <v>12</v>
@@ -4540,7 +4537,7 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
@@ -4678,7 +4675,7 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B127" t="s">
         <v>13</v>
@@ -4701,7 +4698,7 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B128" t="s">
         <v>13</v>
@@ -4724,7 +4721,7 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B129" t="s">
         <v>13</v>
@@ -4747,7 +4744,7 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="1">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B130" t="s">
         <v>13</v>
@@ -4770,7 +4767,7 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="1">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B131" t="s">
         <v>13</v>
@@ -4885,7 +4882,7 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B136" t="s">
         <v>13</v>
@@ -4908,7 +4905,7 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B137" t="s">
         <v>13</v>
@@ -4931,7 +4928,7 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B138" t="s">
         <v>13</v>
@@ -4954,7 +4951,7 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B139" t="s">
         <v>13</v>
@@ -4977,7 +4974,7 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B140" t="s">
         <v>13</v>
@@ -5000,7 +4997,7 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B141" t="s">
         <v>13</v>
@@ -5115,7 +5112,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B146" t="s">
         <v>14</v>
@@ -5138,7 +5135,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B147" t="s">
         <v>14</v>
@@ -5161,7 +5158,7 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B148" t="s">
         <v>14</v>
@@ -5184,7 +5181,7 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="1">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B149" t="s">
         <v>14</v>
@@ -5207,7 +5204,7 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="1">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B150" t="s">
         <v>14</v>
@@ -5230,7 +5227,7 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="1">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B151" t="s">
         <v>14</v>
@@ -5345,7 +5342,7 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B156" t="s">
         <v>14</v>
@@ -5368,7 +5365,7 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B157" t="s">
         <v>14</v>
@@ -5391,7 +5388,7 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B158" t="s">
         <v>14</v>
@@ -5414,7 +5411,7 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B159" t="s">
         <v>14</v>
@@ -5437,7 +5434,7 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B160" t="s">
         <v>14</v>
@@ -5460,7 +5457,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B161" t="s">
         <v>14</v>
@@ -5575,7 +5572,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="1">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B166" t="s">
         <v>15</v>
@@ -5598,7 +5595,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="1">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B167" t="s">
         <v>15</v>
@@ -5621,7 +5618,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="1">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B168" t="s">
         <v>15</v>
@@ -5644,7 +5641,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="1">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B169" t="s">
         <v>15</v>
@@ -5667,7 +5664,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="1">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B170" t="s">
         <v>15</v>
@@ -5690,7 +5687,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="1">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B171" t="s">
         <v>15</v>
@@ -5805,7 +5802,7 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B176" t="s">
         <v>15</v>
@@ -5828,7 +5825,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B177" t="s">
         <v>15</v>
@@ -5851,7 +5848,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B178" t="s">
         <v>15</v>
@@ -5874,7 +5871,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B179" t="s">
         <v>15</v>
@@ -5897,7 +5894,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B180" t="s">
         <v>15</v>
@@ -5920,7 +5917,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B181" t="s">
         <v>15</v>
@@ -6035,7 +6032,7 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="1">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B186" t="s">
         <v>16</v>
@@ -6058,7 +6055,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="1">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B187" t="s">
         <v>16</v>
@@ -6081,7 +6078,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="1">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B188" t="s">
         <v>16</v>
@@ -6104,7 +6101,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="1">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B189" t="s">
         <v>16</v>
@@ -6127,7 +6124,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="1">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B190" t="s">
         <v>16</v>
@@ -6150,7 +6147,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="1">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B191" t="s">
         <v>16</v>
@@ -6288,7 +6285,7 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B197" t="s">
         <v>16</v>
@@ -6311,7 +6308,7 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B198" t="s">
         <v>16</v>
@@ -6334,7 +6331,7 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B199" t="s">
         <v>16</v>
@@ -6357,7 +6354,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B200" t="s">
         <v>16</v>
@@ -6380,7 +6377,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B201" t="s">
         <v>16</v>
@@ -6495,7 +6492,7 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="1">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B206" t="s">
         <v>17</v>
@@ -6518,7 +6515,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="1">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B207" t="s">
         <v>17</v>
@@ -6541,7 +6538,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="1">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B208" t="s">
         <v>17</v>
@@ -6564,7 +6561,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="1">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B209" t="s">
         <v>17</v>
@@ -6587,7 +6584,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="1">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B210" t="s">
         <v>17</v>
@@ -6610,7 +6607,7 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="1">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B211" t="s">
         <v>17</v>
@@ -6725,7 +6722,7 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B216" t="s">
         <v>17</v>
@@ -6748,7 +6745,7 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B217" t="s">
         <v>17</v>
@@ -6771,7 +6768,7 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B218" t="s">
         <v>17</v>
@@ -6794,7 +6791,7 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B219" t="s">
         <v>17</v>
@@ -6817,7 +6814,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B220" t="s">
         <v>17</v>
@@ -6840,7 +6837,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B221" t="s">
         <v>17</v>
@@ -6978,7 +6975,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="1">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B227" t="s">
         <v>18</v>
@@ -7001,7 +6998,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="1">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B228" t="s">
         <v>18</v>
@@ -7024,7 +7021,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="1">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B229" t="s">
         <v>18</v>
@@ -7047,7 +7044,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="1">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B230" t="s">
         <v>18</v>
@@ -7070,7 +7067,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="1">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B231" t="s">
         <v>18</v>
@@ -7185,7 +7182,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B236" t="s">
         <v>18</v>
@@ -7208,7 +7205,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B237" t="s">
         <v>18</v>
@@ -7231,7 +7228,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B238" t="s">
         <v>18</v>
@@ -7254,7 +7251,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B239" t="s">
         <v>18</v>
@@ -7277,7 +7274,7 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B240" t="s">
         <v>18</v>
@@ -7300,7 +7297,7 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B241" t="s">
         <v>18</v>
@@ -7415,7 +7412,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="1">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B246" t="s">
         <v>19</v>
@@ -7438,7 +7435,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="1">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B247" t="s">
         <v>19</v>
@@ -7461,7 +7458,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="1">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B248" t="s">
         <v>19</v>
@@ -7484,7 +7481,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="1">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B249" t="s">
         <v>19</v>
@@ -7507,7 +7504,7 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="1">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B250" t="s">
         <v>19</v>
@@ -7530,7 +7527,7 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="1">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B251" t="s">
         <v>19</v>
@@ -7645,7 +7642,7 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B256" t="s">
         <v>19</v>
@@ -7668,7 +7665,7 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B257" t="s">
         <v>19</v>
@@ -7691,7 +7688,7 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B258" t="s">
         <v>19</v>
@@ -7714,7 +7711,7 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="1">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B259" t="s">
         <v>19</v>
@@ -7737,7 +7734,7 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="1">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B260" t="s">
         <v>19</v>
@@ -7760,7 +7757,7 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="1">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B261" t="s">
         <v>19</v>
@@ -7875,7 +7872,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="1">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B266" t="s">
         <v>20</v>
@@ -7898,7 +7895,7 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="1">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B267" t="s">
         <v>20</v>
@@ -7921,7 +7918,7 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="1">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B268" t="s">
         <v>20</v>
@@ -7944,7 +7941,7 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="1">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B269" t="s">
         <v>20</v>
@@ -7967,7 +7964,7 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="1">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B270" t="s">
         <v>20</v>
@@ -7990,7 +7987,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="1">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B271" t="s">
         <v>20</v>
@@ -8105,7 +8102,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B276" t="s">
         <v>20</v>
@@ -8128,7 +8125,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B277" t="s">
         <v>20</v>
@@ -8151,7 +8148,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B278" t="s">
         <v>20</v>
@@ -8174,7 +8171,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="1">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B279" t="s">
         <v>20</v>
@@ -8197,7 +8194,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B280" t="s">
         <v>20</v>
@@ -8220,7 +8217,7 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="1">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B281" t="s">
         <v>20</v>
@@ -8358,7 +8355,7 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="1">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B287" t="s">
         <v>21</v>
@@ -8381,7 +8378,7 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="1">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B288" t="s">
         <v>21</v>
@@ -8404,7 +8401,7 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="1">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B289" t="s">
         <v>21</v>
@@ -8427,7 +8424,7 @@
     </row>
     <row r="290" spans="1:8">
       <c r="A290" s="1">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B290" t="s">
         <v>21</v>
@@ -8450,7 +8447,7 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="1">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B291" t="s">
         <v>21</v>
@@ -8565,7 +8562,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B296" t="s">
         <v>21</v>
@@ -8588,7 +8585,7 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B297" t="s">
         <v>21</v>
@@ -8611,7 +8608,7 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B298" t="s">
         <v>21</v>
@@ -8634,7 +8631,7 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="1">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B299" t="s">
         <v>21</v>
@@ -8657,7 +8654,7 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B300" t="s">
         <v>21</v>
@@ -8680,7 +8677,7 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B301" t="s">
         <v>21</v>
@@ -8818,7 +8815,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="1">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B307" t="s">
         <v>22</v>
@@ -8841,7 +8838,7 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="1">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B308" t="s">
         <v>22</v>
@@ -8864,7 +8861,7 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="1">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B309" t="s">
         <v>22</v>
@@ -8887,7 +8884,7 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="1">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B310" t="s">
         <v>22</v>
@@ -8910,7 +8907,7 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="1">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B311" t="s">
         <v>22</v>
@@ -9048,7 +9045,7 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B317" t="s">
         <v>22</v>
@@ -9071,7 +9068,7 @@
     </row>
     <row r="318" spans="1:8">
       <c r="A318" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B318" t="s">
         <v>22</v>
@@ -9094,7 +9091,7 @@
     </row>
     <row r="319" spans="1:8">
       <c r="A319" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B319" t="s">
         <v>22</v>
@@ -9117,7 +9114,7 @@
     </row>
     <row r="320" spans="1:8">
       <c r="A320" s="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B320" t="s">
         <v>22</v>
@@ -9140,7 +9137,7 @@
     </row>
     <row r="321" spans="1:8">
       <c r="A321" s="1">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B321" t="s">
         <v>22</v>
@@ -9255,59 +9252,62 @@
     </row>
     <row r="326" spans="1:8">
       <c r="A326" s="1">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="B326" t="s">
         <v>23</v>
       </c>
       <c r="C326">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="D326" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G326">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H326" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="327" spans="1:8">
       <c r="A327" s="1">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="B327" t="s">
         <v>23</v>
       </c>
       <c r="C327">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="D327" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F327" t="b">
         <v>1</v>
       </c>
       <c r="G327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="328" spans="1:8">
       <c r="A328" s="1">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="B328" t="s">
         <v>23</v>
       </c>
       <c r="C328">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D328" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F328" t="b">
         <v>1</v>
@@ -9316,21 +9316,21 @@
         <v>1</v>
       </c>
       <c r="H328" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="329" spans="1:8">
       <c r="A329" s="1">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="B329" t="s">
         <v>23</v>
       </c>
       <c r="C329">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D329" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F329" t="b">
         <v>1</v>
@@ -9339,21 +9339,21 @@
         <v>1</v>
       </c>
       <c r="H329" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="330" spans="1:8">
       <c r="A330" s="1">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="B330" t="s">
         <v>23</v>
       </c>
       <c r="C330">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="D330" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F330" t="b">
         <v>1</v>
@@ -9362,21 +9362,21 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="331" spans="1:8">
       <c r="A331" s="1">
-        <v>499</v>
+        <v>6</v>
       </c>
       <c r="B331" t="s">
         <v>23</v>
       </c>
       <c r="C331">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="D331" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F331" t="b">
         <v>1</v>
@@ -9385,67 +9385,67 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="332" spans="1:8">
       <c r="A332" s="1">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B332" t="s">
         <v>23</v>
       </c>
       <c r="C332">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D332" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F332" t="b">
         <v>1</v>
       </c>
       <c r="G332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H332" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="333" spans="1:8">
       <c r="A333" s="1">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B333" t="s">
         <v>23</v>
       </c>
       <c r="C333">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D333" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F333" t="b">
         <v>1</v>
       </c>
       <c r="G333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="334" spans="1:8">
       <c r="A334" s="1">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B334" t="s">
         <v>23</v>
       </c>
       <c r="C334">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D334" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F334" t="b">
         <v>1</v>
@@ -9454,67 +9454,67 @@
         <v>1</v>
       </c>
       <c r="H334" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="335" spans="1:8">
       <c r="A335" s="1">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="B335" t="s">
         <v>23</v>
       </c>
       <c r="C335">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="D335" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F335" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G335">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H335" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="336" spans="1:8">
       <c r="A336" s="1">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="B336" t="s">
         <v>23</v>
       </c>
       <c r="C336">
-        <v>302</v>
+        <v>35</v>
       </c>
       <c r="D336" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F336" t="b">
         <v>1</v>
       </c>
       <c r="G336">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="337" spans="1:8">
       <c r="A337" s="1">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="B337" t="s">
         <v>23</v>
       </c>
       <c r="C337">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D337" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F337" t="b">
         <v>0</v>
@@ -9523,21 +9523,21 @@
         <v>2</v>
       </c>
       <c r="H337" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="338" spans="1:8">
       <c r="A338" s="1">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="B338" t="s">
         <v>23</v>
       </c>
       <c r="C338">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="D338" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F338" t="b">
         <v>1</v>
@@ -9546,113 +9546,113 @@
         <v>1</v>
       </c>
       <c r="H338" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="1">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="B339" t="s">
         <v>23</v>
       </c>
       <c r="C339">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="D339" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G339">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H339" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="1">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="B340" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C340">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D340" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F340" t="b">
         <v>1</v>
       </c>
       <c r="G340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H340" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="1">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="B341" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C341">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D341" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F341" t="b">
         <v>1</v>
       </c>
       <c r="G341">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H341" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="1">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="B342" t="s">
         <v>24</v>
       </c>
       <c r="C342">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="D342" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F342" t="b">
         <v>1</v>
       </c>
       <c r="G342">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H342" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="1">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="B343" t="s">
         <v>24</v>
       </c>
       <c r="C343">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="D343" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F343" t="b">
         <v>1</v>
@@ -9661,205 +9661,205 @@
         <v>3</v>
       </c>
       <c r="H343" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="1">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="B344" t="s">
         <v>24</v>
       </c>
       <c r="C344">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="D344" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F344" t="b">
         <v>1</v>
       </c>
       <c r="G344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H344" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="1">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="B345" t="s">
         <v>24</v>
       </c>
       <c r="C345">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="D345" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F345" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G345">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="1">
-        <v>221</v>
+        <v>324</v>
       </c>
       <c r="B346" t="s">
         <v>24</v>
       </c>
       <c r="C346">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="D346" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F346" t="b">
         <v>1</v>
       </c>
       <c r="G346">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="1">
-        <v>273</v>
+        <v>376</v>
       </c>
       <c r="B347" t="s">
         <v>24</v>
       </c>
       <c r="C347">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D347" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G347">
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="1">
-        <v>325</v>
+        <v>428</v>
       </c>
       <c r="B348" t="s">
         <v>24</v>
       </c>
       <c r="C348">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="D348" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F348" t="b">
         <v>1</v>
       </c>
       <c r="G348">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H348" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="1">
-        <v>377</v>
+        <v>480</v>
       </c>
       <c r="B349" t="s">
         <v>24</v>
       </c>
       <c r="C349">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="D349" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F349" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H349" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="1">
-        <v>429</v>
+        <v>2</v>
       </c>
       <c r="B350" t="s">
         <v>24</v>
       </c>
       <c r="C350">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="D350" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F350" t="b">
         <v>1</v>
       </c>
       <c r="G350">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="1">
-        <v>481</v>
+        <v>24</v>
       </c>
       <c r="B351" t="s">
         <v>24</v>
       </c>
       <c r="C351">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="D351" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="1">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B352" t="s">
         <v>24</v>
       </c>
       <c r="C352">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D352" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F352" t="b">
         <v>1</v>
@@ -9868,228 +9868,228 @@
         <v>1</v>
       </c>
       <c r="H352" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="1">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B353" t="s">
         <v>24</v>
       </c>
       <c r="C353">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D353" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F353" t="b">
         <v>1</v>
       </c>
       <c r="G353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H353" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="1">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="B354" t="s">
         <v>24</v>
       </c>
       <c r="C354">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D354" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F354" t="b">
         <v>1</v>
       </c>
       <c r="G354">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H354" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="1">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="B355" t="s">
         <v>24</v>
       </c>
       <c r="C355">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="D355" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F355" t="b">
         <v>1</v>
       </c>
       <c r="G355">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="1">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="B356" t="s">
         <v>24</v>
       </c>
       <c r="C356">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="D356" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F356" t="b">
         <v>1</v>
       </c>
       <c r="G356">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="1">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="B357" t="s">
         <v>24</v>
       </c>
       <c r="C357">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D357" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F357" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G357">
         <v>1</v>
       </c>
       <c r="H357" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="1">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="B358" t="s">
         <v>24</v>
       </c>
       <c r="C358">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D358" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F358" t="b">
         <v>1</v>
       </c>
       <c r="G358">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H358" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="1">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="B359" t="s">
         <v>24</v>
       </c>
       <c r="C359">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D359" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G359">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H359" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="1">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="B360" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C360">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D360" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F360" t="b">
         <v>1</v>
       </c>
       <c r="G360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H360" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="1">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="B361" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C361">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D361" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F361" t="b">
         <v>1</v>
       </c>
       <c r="G361">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H361" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="1">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="B362" t="s">
         <v>25</v>
       </c>
       <c r="C362">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="D362" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F362" t="b">
         <v>1</v>
@@ -10098,21 +10098,21 @@
         <v>1</v>
       </c>
       <c r="H362" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="1">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="B363" t="s">
         <v>25</v>
       </c>
       <c r="C363">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D363" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F363" t="b">
         <v>1</v>
@@ -10121,21 +10121,21 @@
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="1">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="B364" t="s">
         <v>25</v>
       </c>
       <c r="C364">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="D364" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F364" t="b">
         <v>1</v>
@@ -10144,44 +10144,44 @@
         <v>1</v>
       </c>
       <c r="H364" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="1">
-        <v>188</v>
+        <v>291</v>
       </c>
       <c r="B365" t="s">
         <v>25</v>
       </c>
       <c r="C365">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="D365" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F365" t="b">
         <v>1</v>
       </c>
       <c r="G365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H365" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="1">
-        <v>240</v>
+        <v>343</v>
       </c>
       <c r="B366" t="s">
         <v>25</v>
       </c>
       <c r="C366">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="D366" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F366" t="b">
         <v>1</v>
@@ -10190,44 +10190,44 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="1">
-        <v>292</v>
+        <v>395</v>
       </c>
       <c r="B367" t="s">
         <v>25</v>
       </c>
       <c r="C367">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="D367" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F367" t="b">
         <v>1</v>
       </c>
       <c r="G367">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="1">
-        <v>344</v>
+        <v>447</v>
       </c>
       <c r="B368" t="s">
         <v>25</v>
       </c>
       <c r="C368">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="D368" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F368" t="b">
         <v>1</v>
@@ -10236,21 +10236,21 @@
         <v>1</v>
       </c>
       <c r="H368" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="1">
-        <v>396</v>
+        <v>499</v>
       </c>
       <c r="B369" t="s">
         <v>25</v>
       </c>
       <c r="C369">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="D369" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F369" t="b">
         <v>1</v>
@@ -10259,21 +10259,21 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="1">
-        <v>448</v>
+        <v>3</v>
       </c>
       <c r="B370" t="s">
         <v>25</v>
       </c>
       <c r="C370">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="D370" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F370" t="b">
         <v>1</v>
@@ -10282,21 +10282,21 @@
         <v>1</v>
       </c>
       <c r="H370" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="1">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="B371" t="s">
         <v>25</v>
       </c>
       <c r="C371">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="D371" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F371" t="b">
         <v>1</v>
@@ -10305,21 +10305,21 @@
         <v>1</v>
       </c>
       <c r="H371" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="1">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B372" t="s">
         <v>25</v>
       </c>
       <c r="C372">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D372" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F372" t="b">
         <v>1</v>
@@ -10328,44 +10328,44 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="1">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B373" t="s">
         <v>25</v>
       </c>
       <c r="C373">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D373" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F373" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G373">
         <v>1</v>
       </c>
       <c r="H373" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="1">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B374" t="s">
         <v>25</v>
       </c>
       <c r="C374">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D374" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F374" t="b">
         <v>1</v>
@@ -10374,21 +10374,21 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="1">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="B375" t="s">
         <v>25</v>
       </c>
       <c r="C375">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="D375" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F375" t="b">
         <v>0</v>
@@ -10397,21 +10397,21 @@
         <v>1</v>
       </c>
       <c r="H375" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="1">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="B376" t="s">
         <v>25</v>
       </c>
       <c r="C376">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D376" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F376" t="b">
         <v>1</v>
@@ -10420,44 +10420,44 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="377" spans="1:8">
       <c r="A377" s="1">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="B377" t="s">
         <v>25</v>
       </c>
       <c r="C377">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="D377" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G377">
         <v>1</v>
       </c>
       <c r="H377" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="1">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="B378" t="s">
         <v>25</v>
       </c>
       <c r="C378">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D378" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F378" t="b">
         <v>1</v>
@@ -10466,21 +10466,21 @@
         <v>1</v>
       </c>
       <c r="H378" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="1">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="B379" t="s">
         <v>25</v>
       </c>
       <c r="C379">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D379" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F379" t="b">
         <v>1</v>
@@ -10489,44 +10489,44 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="1">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="B380" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C380">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D380" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F380" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G380">
         <v>1</v>
       </c>
       <c r="H380" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="1">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="B381" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C381">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="D381" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F381" t="b">
         <v>1</v>
@@ -10535,44 +10535,44 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="1">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="B382" t="s">
         <v>26</v>
       </c>
       <c r="C382">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D382" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G382">
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="1">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="B383" t="s">
         <v>26</v>
       </c>
       <c r="C383">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D383" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F383" t="b">
         <v>1</v>
@@ -10581,44 +10581,44 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="1">
-        <v>122</v>
+        <v>226</v>
       </c>
       <c r="B384" t="s">
         <v>26</v>
       </c>
       <c r="C384">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="D384" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F384" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G384">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H384" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="1">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="B385" t="s">
         <v>26</v>
       </c>
       <c r="C385">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="D385" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F385" t="b">
         <v>1</v>
@@ -10627,44 +10627,44 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="1">
-        <v>226</v>
+        <v>329</v>
       </c>
       <c r="B386" t="s">
         <v>26</v>
       </c>
       <c r="C386">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="D386" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G386">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="1">
-        <v>278</v>
+        <v>381</v>
       </c>
       <c r="B387" t="s">
         <v>26</v>
       </c>
       <c r="C387">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="D387" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F387" t="b">
         <v>1</v>
@@ -10673,113 +10673,113 @@
         <v>1</v>
       </c>
       <c r="H387" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="1">
-        <v>330</v>
+        <v>433</v>
       </c>
       <c r="B388" t="s">
         <v>26</v>
       </c>
       <c r="C388">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D388" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F388" t="b">
         <v>1</v>
       </c>
       <c r="G388">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H388" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="1">
-        <v>382</v>
+        <v>485</v>
       </c>
       <c r="B389" t="s">
         <v>26</v>
       </c>
       <c r="C389">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="D389" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F389" t="b">
         <v>1</v>
       </c>
       <c r="G389">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H389" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="390" spans="1:8">
       <c r="A390" s="1">
-        <v>434</v>
+        <v>20</v>
       </c>
       <c r="B390" t="s">
         <v>26</v>
       </c>
       <c r="C390">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D390" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F390" t="b">
         <v>1</v>
       </c>
       <c r="G390">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H390" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="1">
-        <v>486</v>
+        <v>42</v>
       </c>
       <c r="B391" t="s">
         <v>26</v>
       </c>
       <c r="C391">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="D391" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F391" t="b">
         <v>1</v>
       </c>
       <c r="G391">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H391" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="1">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B392" t="s">
         <v>26</v>
       </c>
       <c r="C392">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D392" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F392" t="b">
         <v>1</v>
@@ -10788,12 +10788,12 @@
         <v>1</v>
       </c>
       <c r="H392" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="1">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B393" t="s">
         <v>26</v>
@@ -10802,7 +10802,7 @@
         <v>21</v>
       </c>
       <c r="D393" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F393" t="b">
         <v>1</v>
@@ -10811,21 +10811,21 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="1">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="B394" t="s">
         <v>26</v>
       </c>
       <c r="C394">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D394" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F394" t="b">
         <v>1</v>
@@ -10834,44 +10834,44 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="1">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="B395" t="s">
         <v>26</v>
       </c>
       <c r="C395">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D395" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F395" t="b">
         <v>1</v>
       </c>
       <c r="G395">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H395" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="1">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="B396" t="s">
         <v>26</v>
       </c>
       <c r="C396">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D396" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F396" t="b">
         <v>1</v>
@@ -10880,44 +10880,44 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="1">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="B397" t="s">
         <v>26</v>
       </c>
       <c r="C397">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D397" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F397" t="b">
         <v>1</v>
       </c>
       <c r="G397">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H397" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="1">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="B398" t="s">
         <v>26</v>
       </c>
       <c r="C398">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D398" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F398" t="b">
         <v>1</v>
@@ -10926,44 +10926,44 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="1">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="B399" t="s">
         <v>26</v>
       </c>
       <c r="C399">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="D399" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F399" t="b">
         <v>1</v>
       </c>
       <c r="G399">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="1">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="B400" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C400">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D400" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F400" t="b">
         <v>1</v>
@@ -10972,44 +10972,44 @@
         <v>1</v>
       </c>
       <c r="H400" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="1">
-        <v>218</v>
+        <v>86</v>
       </c>
       <c r="B401" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C401">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="D401" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F401" t="b">
         <v>1</v>
       </c>
       <c r="G401">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H401" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="1">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="B402" t="s">
         <v>27</v>
       </c>
       <c r="C402">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="D402" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F402" t="b">
         <v>1</v>
@@ -11018,21 +11018,21 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="1">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="B403" t="s">
         <v>27</v>
       </c>
       <c r="C403">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="D403" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F403" t="b">
         <v>1</v>
@@ -11041,21 +11041,21 @@
         <v>2</v>
       </c>
       <c r="H403" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="1">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="B404" t="s">
         <v>27</v>
       </c>
       <c r="C404">
-        <v>69</v>
+        <v>239</v>
       </c>
       <c r="D404" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F404" t="b">
         <v>1</v>
@@ -11064,44 +11064,44 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="1">
-        <v>190</v>
+        <v>293</v>
       </c>
       <c r="B405" t="s">
         <v>27</v>
       </c>
       <c r="C405">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="D405" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F405" t="b">
         <v>1</v>
       </c>
       <c r="G405">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H405" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="1">
-        <v>242</v>
+        <v>345</v>
       </c>
       <c r="B406" t="s">
         <v>27</v>
       </c>
       <c r="C406">
-        <v>239</v>
+        <v>135</v>
       </c>
       <c r="D406" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F406" t="b">
         <v>1</v>
@@ -11110,21 +11110,21 @@
         <v>1</v>
       </c>
       <c r="H406" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="1">
-        <v>294</v>
+        <v>397</v>
       </c>
       <c r="B407" t="s">
         <v>27</v>
       </c>
       <c r="C407">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="D407" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F407" t="b">
         <v>1</v>
@@ -11133,21 +11133,21 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="1">
-        <v>346</v>
+        <v>449</v>
       </c>
       <c r="B408" t="s">
         <v>27</v>
       </c>
       <c r="C408">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="D408" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F408" t="b">
         <v>1</v>
@@ -11156,21 +11156,21 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="1">
-        <v>398</v>
+        <v>501</v>
       </c>
       <c r="B409" t="s">
         <v>27</v>
       </c>
       <c r="C409">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D409" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F409" t="b">
         <v>1</v>
@@ -11179,44 +11179,44 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="1">
-        <v>450</v>
+        <v>4</v>
       </c>
       <c r="B410" t="s">
         <v>27</v>
       </c>
       <c r="C410">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="D410" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F410" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G410">
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="1">
-        <v>502</v>
+        <v>26</v>
       </c>
       <c r="B411" t="s">
         <v>27</v>
       </c>
       <c r="C411">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D411" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F411" t="b">
         <v>1</v>
@@ -11225,44 +11225,44 @@
         <v>1</v>
       </c>
       <c r="H411" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="1">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B412" t="s">
         <v>27</v>
       </c>
       <c r="C412">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D412" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F412" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G412">
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="1">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B413" t="s">
         <v>27</v>
       </c>
       <c r="C413">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D413" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F413" t="b">
         <v>1</v>
@@ -11271,21 +11271,21 @@
         <v>1</v>
       </c>
       <c r="H413" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="1">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B414" t="s">
         <v>27</v>
       </c>
       <c r="C414">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D414" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F414" t="b">
         <v>1</v>
@@ -11294,44 +11294,44 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="1">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="B415" t="s">
         <v>27</v>
       </c>
       <c r="C415">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D415" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F415" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G415">
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="1">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="B416" t="s">
         <v>27</v>
       </c>
       <c r="C416">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D416" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F416" t="b">
         <v>1</v>
@@ -11340,67 +11340,67 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="1">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B417" t="s">
         <v>27</v>
       </c>
       <c r="C417">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D417" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F417" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G417">
         <v>1</v>
       </c>
       <c r="H417" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="1">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B418" t="s">
         <v>27</v>
       </c>
       <c r="C418">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="D418" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F418" t="b">
         <v>1</v>
       </c>
       <c r="G418">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H418" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="1">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="B419" t="s">
         <v>27</v>
       </c>
       <c r="C419">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D419" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F419" t="b">
         <v>1</v>
@@ -11409,53 +11409,7 @@
         <v>1</v>
       </c>
       <c r="H419" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8">
-      <c r="A420" s="1">
-        <v>180</v>
-      </c>
-      <c r="B420" t="s">
-        <v>27</v>
-      </c>
-      <c r="C420">
-        <v>223</v>
-      </c>
-      <c r="D420" t="s">
-        <v>46</v>
-      </c>
-      <c r="F420" t="b">
-        <v>1</v>
-      </c>
-      <c r="G420">
-        <v>2</v>
-      </c>
-      <c r="H420" t="s">
         <v>465</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8">
-      <c r="A421" s="1">
-        <v>202</v>
-      </c>
-      <c r="B421" t="s">
-        <v>27</v>
-      </c>
-      <c r="C421">
-        <v>92</v>
-      </c>
-      <c r="D421" t="s">
-        <v>47</v>
-      </c>
-      <c r="F421" t="b">
-        <v>1</v>
-      </c>
-      <c r="G421">
-        <v>1</v>
-      </c>
-      <c r="H421" t="s">
-        <v>466</v>
       </c>
     </row>
   </sheetData>
